--- a/データ構造.xlsx
+++ b/データ構造.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\red\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>列名</t>
   </si>
@@ -137,17 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>con_idの子レス</t>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_parent_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>con_content</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -263,6 +252,36 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>con_file</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>con_state</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルのパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示/非表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -795,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H21" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -860,7 +879,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -878,7 +897,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -886,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12"/>
@@ -894,7 +913,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,7 +921,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12"/>
@@ -910,15 +929,15 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17">
         <v>50</v>
@@ -928,7 +947,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -958,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -976,12 +995,12 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>21</v>
@@ -999,7 +1018,7 @@
     </row>
     <row r="12" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>21</v>
@@ -1020,7 +1039,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -1033,33 +1052,43 @@
     </row>
     <row r="14" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1000</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="14" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1084,7 +1113,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,7 +1133,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1112,7 +1141,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="13">
         <v>50</v>
@@ -1124,15 +1153,15 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
@@ -1140,15 +1169,15 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
@@ -1156,20 +1185,9 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.15" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
